--- a/data/income_statement/2digits/size/10_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/10_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>10-Manufacture of food products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>10-Manufacture of food products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1145 +841,1295 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>54134288.09888001</v>
+        <v>53503052.39416999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>65816967.52753</v>
+        <v>65240402.50509</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>83834587.24304</v>
+        <v>83090313.37597001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>94938675.37612002</v>
+        <v>94659962.70665999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>99641440.39885001</v>
+        <v>101328281.05507</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>119644807.24287</v>
+        <v>122852418.24892</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>130990479.24748</v>
+        <v>140009372.15288</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>150346468.58738</v>
+        <v>158852144.31997</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>193405203.54719</v>
+        <v>191233296.45744</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>206771699.60222</v>
+        <v>200162025.38581</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>256793795.27764</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>254706866.13221</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>328591980.783</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>46245254.67663</v>
+        <v>45726158.15193</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>56945497.15707</v>
+        <v>56506838.02993</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>70173668.99824999</v>
+        <v>69572644.25920999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>79683882.68876001</v>
+        <v>79294895.44381</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>83598560.61531</v>
+        <v>84423263.27032</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>98133083.12697001</v>
+        <v>100390624.70625</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>107887664.75622</v>
+        <v>114734593.59629</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>125482776.24786</v>
+        <v>130662784.83076</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>157252687.11402</v>
+        <v>155599949.62622</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>166556092.3011</v>
+        <v>160334782.30814</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>206079936.62747</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>204762237.39116</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>258277897.823</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>7108914.85771</v>
+        <v>7006489.92208</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>8251107.71487</v>
+        <v>8126662.27126</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>12685002.51438</v>
+        <v>12561744.45357</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>14228556.30188</v>
+        <v>14344053.48973</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>15087890.77201</v>
+        <v>15952661.60174</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>20407625.79595</v>
+        <v>21367483.27216</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>21985186.52645</v>
+        <v>24121128.2904</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>23322051.80148</v>
+        <v>26662948.88715</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>34415664.7359</v>
+        <v>33961730.54081</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>38143847.38758</v>
+        <v>37796919.60449</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>48071563.2198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>47352927.92035001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>66884658.625</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>780118.5645399999</v>
+        <v>770404.3201600001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>620362.65559</v>
+        <v>606902.2039</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>975915.7304099998</v>
+        <v>955924.6631900001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1026236.38548</v>
+        <v>1021013.77312</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>954989.0115300001</v>
+        <v>952356.1830099999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1104098.31995</v>
+        <v>1094310.27051</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1117627.96481</v>
+        <v>1153650.26619</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1541640.53804</v>
+        <v>1526410.60206</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>1736851.69727</v>
+        <v>1671616.29041</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2071759.91354</v>
+        <v>2030323.47318</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2642295.43037</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2591700.820700001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>3429424.335</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>6598525.50069</v>
+        <v>6573672.84175</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>7429113.15271</v>
+        <v>7400164.46253</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>8219435.506100001</v>
+        <v>8182538.32345</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>8672705.50378</v>
+        <v>8657109.145470001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>8739862.985160001</v>
+        <v>9059886.282449998</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>9979956.048650002</v>
+        <v>10379977.59898</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>11106168.63806</v>
+        <v>11779285.74864</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>12549586.66974</v>
+        <v>12919073.08063</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>14636974.5379</v>
+        <v>14586204.01524</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>20925890.95201</v>
+        <v>16314783.44305</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>21161156.60133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>21072276.50013</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>25572552.354</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1318575.21705</v>
+        <v>1309466.33463</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1709387.40243</v>
+        <v>1695923.89111</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1905236.96801</v>
+        <v>1894888.91582</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>2297627.484060001</v>
+        <v>2287654.75523</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1905617.17618</v>
+        <v>1917471.20658</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>2334979.42774</v>
+        <v>2370280.51541</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>2401675.92876</v>
+        <v>2475130.92669</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>2697859.79361</v>
+        <v>2736644.72538</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>3102389.59579</v>
+        <v>3076639.43035</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>7694147.41202</v>
+        <v>3127727.98437</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>3768095.99168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>3732540.51167</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>5329196.569</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>5064966.77149</v>
+        <v>5052261.71067</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>5371273.22559</v>
+        <v>5357455.09735</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>5923848.51579</v>
+        <v>5904396.96083</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>5910281.916680001</v>
+        <v>5907325.939780001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>6398538.69574</v>
+        <v>6702816.20358</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>7237718.04555</v>
+        <v>7597250.60505</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>8278099.944740001</v>
+        <v>8843595.84984</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>9361224.686690001</v>
+        <v>9658764.885910001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>10886047.63465</v>
+        <v>10863785.57846</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>12430952.8187</v>
+        <v>12388316.16366</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>16485688.27783</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16435861.1292</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>19133886.577</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>214983.51215</v>
+        <v>211944.79645</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>348452.52469</v>
+        <v>346785.47407</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>390350.0223</v>
+        <v>383252.4468</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>464796.10304</v>
+        <v>462128.45046</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>435707.11324</v>
+        <v>439598.87229</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>407258.57536</v>
+        <v>412446.4785200001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>426392.7645599999</v>
+        <v>460558.97211</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>490502.18944</v>
+        <v>523663.46934</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>648537.30746</v>
+        <v>645779.0064300001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>800790.7212900001</v>
+        <v>798739.29502</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>907372.33182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>903874.8592599999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1109469.208</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>47535762.59819</v>
+        <v>46929379.55242</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>58387854.37481999</v>
+        <v>57840238.04256</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>75615151.73694</v>
+        <v>74907775.05252001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>86265969.87233999</v>
+        <v>86002853.56119001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>90901577.41368999</v>
+        <v>92268394.77262001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>109664851.19422</v>
+        <v>112472440.64994</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>119884310.60942</v>
+        <v>128230086.40424</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>137796881.91764</v>
+        <v>145933071.23934</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>178768229.00929</v>
+        <v>176647092.4422</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>185845808.65021</v>
+        <v>183847241.94276</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>235632638.67631</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>233634589.63208</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>303019428.429</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>38606674.12799001</v>
+        <v>38072359.70558</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>48638904.62991001</v>
+        <v>48160510.74578</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>63940695.71812</v>
+        <v>63314252.11632</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>72948147.04903001</v>
+        <v>72724932.55422001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>76096450.04397</v>
+        <v>77124802.37842999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>92800082.99655999</v>
+        <v>94564592.40329</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>100513269.30363</v>
+        <v>106796361.64768</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>114292522.87784</v>
+        <v>121241846.84416</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>149021674.43498</v>
+        <v>147193819.38653</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>152959147.32467</v>
+        <v>151294470.17829</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>195551882.93686</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>193983354.9545</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>252436136.591</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>32445611.97223</v>
+        <v>31988690.90829</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>41651755.61378</v>
+        <v>41263811.98038</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>55238949.84179</v>
+        <v>54747620.42223</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>64301684.66717</v>
+        <v>64106357.52034</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>66916003.14899001</v>
+        <v>67845421.5404</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>81037874.87236001</v>
+        <v>82725203.94064</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>89467364.43669</v>
+        <v>94299792.29681</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>98472529.12907998</v>
+        <v>105102417.97643</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>126645268.56663</v>
+        <v>125210806.21794</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>134012751.88514</v>
+        <v>132761523.26322</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>170708372.82704</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>169307167.7983</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>218487485.099</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>5415816.77621</v>
+        <v>5344164.6294</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>6190517.49773</v>
+        <v>6108309.159659999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>7603833.99305</v>
+        <v>7494672.303090001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>7538662.71938</v>
+        <v>7533897.650220001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>7863823.82461</v>
+        <v>7976543.724299999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>10667186.09621</v>
+        <v>10722572.29516</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>9657043.73065</v>
+        <v>11045514.22869</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>14023533.32175</v>
+        <v>14319396.13165</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>19660845.83357</v>
+        <v>19425678.77303</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>16088812.20657</v>
+        <v>15854159.75581</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>21518456.90467</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>21401813.45203</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>28988543.386</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>106855.62914</v>
+        <v>103171.34447</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>174764.29599</v>
+        <v>170455.01039</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>197017.72091</v>
+        <v>182078.5202</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>207728.92062</v>
+        <v>194809.78835</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>256238.61521</v>
+        <v>239886.29041</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>247057.40607</v>
+        <v>252065.26479</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>327666.6004</v>
+        <v>332405.40927</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>497383.93178</v>
+        <v>431740.91984</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>652823.9495799999</v>
+        <v>552813.1338</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>798237.31602</v>
+        <v>731805.77001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>825988.5384200001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>803607.5288300001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>934743.6800000001</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>638389.75041</v>
+        <v>636332.8234199999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>621867.2224099999</v>
+        <v>617934.5953500001</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>900894.16237</v>
+        <v>889880.8707999999</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>900070.74186</v>
+        <v>889867.5953099999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1060384.45516</v>
+        <v>1062950.82332</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>847964.6219200001</v>
+        <v>864750.9027000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1061194.53589</v>
+        <v>1118649.71291</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1299076.49523</v>
+        <v>1388291.81624</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>2062736.0852</v>
+        <v>2004521.26176</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>2059345.91694</v>
+        <v>1946981.38925</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>2499064.666730001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2470766.17534</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>4025364.426</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>8929088.470199998</v>
+        <v>8857019.84684</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>9748949.74491</v>
+        <v>9679727.296780001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>11674456.01882</v>
+        <v>11593522.9362</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>13317822.82331</v>
+        <v>13277921.00697</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>14805127.36972</v>
+        <v>15143592.39419</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>16864768.19766</v>
+        <v>17907848.24665</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>19371041.30579</v>
+        <v>21433724.75656</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>23504359.0398</v>
+        <v>24691224.39518</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>29746554.57431</v>
+        <v>29453273.05567</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>32886661.32554001</v>
+        <v>32552771.76447</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>40080755.73945</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>39651234.67758</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>50583291.838</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>5866699.61507</v>
+        <v>5790079.39555</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>6994993.409449999</v>
+        <v>6896620.34224</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>8151403.580839999</v>
+        <v>8047612.14367</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>9289100.642649999</v>
+        <v>9227237.520090001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>10423802.29407</v>
+        <v>10514178.4899</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>11369992.74024</v>
+        <v>12035678.36234</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>12250189.974</v>
+        <v>13618191.25319</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>14491229.5951</v>
+        <v>14838190.22958</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>17335072.02144</v>
+        <v>17106165.57641</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>18921798.72214</v>
+        <v>18583746.42058</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>22679410.53058</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>22418475.39896</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>27564247.451</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>88608.26357000001</v>
+        <v>88401.78353999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>116688.43674</v>
+        <v>116491.41595</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>126976.13432</v>
+        <v>126575.54648</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>164500.61284</v>
+        <v>164578.79418</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>215957.26726</v>
+        <v>217690.95196</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>234236.11945</v>
+        <v>241760.83777</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>241109.06768</v>
+        <v>249923.5929</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>260646.03096</v>
+        <v>279282.33578</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>259001.61366</v>
+        <v>257098.41443</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>258891.39323</v>
+        <v>257973.26892</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>312822.50894</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>306386.84993</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>322166.175</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>4144294.86992</v>
+        <v>4108424.36763</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>4996163.55907</v>
+        <v>4937681.41604</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>5754255.52831</v>
+        <v>5707754.685039999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>6492462.380129999</v>
+        <v>6484083.55898</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>7420447.71826</v>
+        <v>7528301.61826</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>7917410.52172</v>
+        <v>8504439.663970001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>8596609.597680001</v>
+        <v>9612409.403719999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>10162380.50309</v>
+        <v>10351271.99932</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>12034993.99554</v>
+        <v>11946172.17322</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>13177604.61762</v>
+        <v>13079750.22943</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>15926650.63703</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>15790252.19186</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>19334456.629</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1633796.48158</v>
+        <v>1593253.24438</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1882141.41364</v>
+        <v>1842447.51025</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2270171.918209999</v>
+        <v>2213281.91215</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2632137.64968</v>
+        <v>2578575.16693</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2787397.30855</v>
+        <v>2768185.91968</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3218346.09907</v>
+        <v>3289477.8606</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>3412471.30864</v>
+        <v>3755858.25657</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>4068203.06105</v>
+        <v>4207635.89448</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>5041076.41224</v>
+        <v>4902894.98876</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>5485302.711289999</v>
+        <v>5246022.92223</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>6439937.384610001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>6321836.35717</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>7907624.647</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>3062388.85513</v>
+        <v>3066940.451289999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>2753956.33546</v>
+        <v>2783106.95454</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>3523052.437979999</v>
+        <v>3545910.79253</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>4028722.18066</v>
+        <v>4050683.48688</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>4381325.075650001</v>
+        <v>4629413.90429</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>5494775.457420001</v>
+        <v>5872169.884310002</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>7120851.33179</v>
+        <v>7815533.503369999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>9013129.444700001</v>
+        <v>9853034.165599998</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>12411482.55287</v>
+        <v>12347107.47926</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>13964862.6034</v>
+        <v>13969025.34389</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>17401345.20887</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>17232759.27862</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>23019044.387</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>2789253.95992</v>
+        <v>2389139.67584</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2361492.66992</v>
+        <v>1932078.17407</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>3054251.85953</v>
+        <v>2417763.38895</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>3233976.94207</v>
+        <v>2383914.72735</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2845077.03595</v>
+        <v>2815820.25828</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>4418762.712940001</v>
+        <v>4347298.416680001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>4937204.888929999</v>
+        <v>5199675.653229999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>5479922.91828</v>
+        <v>5568082.41531</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>7733353.147299999</v>
+        <v>7216939.103479999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>17534363.50708</v>
+        <v>16939961.40276</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>17232699.08653</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>11923558.84764</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>21949482.476</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>63955.23347000001</v>
+        <v>41185.97522</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>85368.18729</v>
+        <v>65832.28053999999</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>65538.15282999999</v>
+        <v>43601.71624</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>113937.63455</v>
+        <v>83956.29574</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>85703.79863999998</v>
+        <v>56025.5475</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>66964.02129999999</v>
+        <v>33156.62649</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>106403.48622</v>
+        <v>44204.99788</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>180609.88269</v>
+        <v>92112.20271</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>281855.5736600001</v>
+        <v>118548.96352</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>260964.0055</v>
+        <v>115886.51994</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>5773839.778809999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>943080.26534</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>42802.65</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>379082.05094</v>
+        <v>83552.33596</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>346304.21936</v>
+        <v>27019.73905</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>435636.3701999999</v>
+        <v>52133.92373999999</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>531045.28376</v>
+        <v>27598.14485</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>82983.97034999999</v>
+        <v>75985.66127</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>79708.72746000001</v>
+        <v>89630.24388000001</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>55660.18276</v>
+        <v>52167.11579</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>135063.01913</v>
+        <v>125839.47405</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>167514.43988</v>
+        <v>138087.84978</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>305693.4748</v>
+        <v>279731.43644</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>270410.17907</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>240400.94347</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>105328.388</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>258572.91126</v>
+        <v>241907.7904</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>221501.11287</v>
+        <v>202291.73955</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>259260.56406</v>
+        <v>241185.60444</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>254272.12601</v>
+        <v>240723.63699</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>250488.92994</v>
+        <v>239990.65133</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>309192.41941</v>
+        <v>300861.07602</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>390161.00847</v>
+        <v>406742.54914</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>446268.49235</v>
+        <v>574208.07141</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>976524.73905</v>
+        <v>931947.1351300001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1572522.33261</v>
+        <v>1511007.08084</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2341474.03049</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2274320.50523</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1959427.338</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>2183.64511</v>
+        <v>2182.03235</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>1688.3824</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>3761.85309</v>
+        <v>3761.853090000001</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>2444.43919</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>3885.00966</v>
+        <v>3876.65586</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>15534.58375</v>
+        <v>15653.05337</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>27399.90244</v>
+        <v>26800.16295</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>20765.8983</v>
+        <v>21232.34262</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>28427.9322</v>
+        <v>28387.59569</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>47785.40417999999</v>
+        <v>44082.84265</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>75793.33191999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>70128.1845</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>78057.216</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>35483.99126</v>
+        <v>27885.48169</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>37635.3999</v>
+        <v>30350.72401</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>137630.78273</v>
+        <v>123982.16064</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>33886.79303</v>
+        <v>24766.63427</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>37080.59726</v>
+        <v>36813.76743</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>32078.30605</v>
+        <v>28919.66088</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>35484.5658</v>
+        <v>33395.03161999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>27160.3629</v>
+        <v>26894.58602</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>41123.09153</v>
+        <v>40886.63776999999</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>58802.98919999999</v>
+        <v>58603.09409999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>101444.70615</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>98480.37901999998</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>74971.10400000001</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>9949.463000000002</v>
+        <v>9947.816710000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>9619.67268</v>
+        <v>9515.400730000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>15115.28743</v>
+        <v>14561.4964</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>35246.74019999999</v>
+        <v>29434.8694</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>36653.86885</v>
+        <v>35580.04383</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>79156.62405</v>
+        <v>75444.04336</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>38652.14993</v>
+        <v>37893.86631</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>18948.9526</v>
+        <v>6618.99154</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>41025.11771</v>
+        <v>13814.36027</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>170167.99618</v>
+        <v>168055.989</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>263759.13817</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>253156.74125</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>2093595.31</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1619889.01882</v>
+        <v>1579139.33892</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1263502.18601</v>
+        <v>1214460.9288</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1626814.43199</v>
+        <v>1441574.10062</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1745726.81511</v>
+        <v>1466265.04646</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1642903.86467</v>
+        <v>1674450.28978</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>3113155.51936</v>
+        <v>3095105.1619</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>3577349.50933</v>
+        <v>3820699.99188</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3794194.90834</v>
+        <v>3851815.10086</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>5076558.65577</v>
+        <v>4869885.04271</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>13694825.19207</v>
+        <v>13381531.59177</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>7009206.254149999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>6700487.57509</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>15790250.184</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>19815.70089</v>
+        <v>19034.36016</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>16595.32442</v>
+        <v>16096.78814</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>16807.16536</v>
+        <v>16671.18019</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>13255.08874</v>
+        <v>13194.36556</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>15329.1383</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>16048.05254</v>
+        <v>16189.83286</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>16879.92264</v>
+        <v>16964.15593</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>35231.63727000001</v>
+        <v>35333.53181</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>28008.73236</v>
+        <v>27926.02857999999</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>40130.27015</v>
+        <v>40094.18407000001</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>66137.96424999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>35448.502</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2090,13 +2141,13 @@
         <v>2720.69422</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>1616.72437</v>
+        <v>1389.8877</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>625.34263</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>63682.5199</v>
+        <v>63175.26096</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>363.1607</v>
@@ -2113,284 +2164,324 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>400321.94517</v>
+        <v>384304.54443</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>379278.18499</v>
+        <v>364822.19085</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>490966.55762</v>
+        <v>477570.65937</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>502545.29711</v>
+        <v>494141.40719</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>689422.51565</v>
+        <v>677143.16035</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>643241.9391199999</v>
+        <v>629163.4569599999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>688851.00064</v>
+        <v>760444.6210299999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>821679.7647000001</v>
+        <v>834028.1142900002</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1092314.86514</v>
+        <v>1047455.49003</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1383471.84239</v>
+        <v>1340968.66395</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1330633.70352</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1277366.28949</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1769601.784</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1746881.97291</v>
+        <v>1676421.32982</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1378080.11897</v>
+        <v>1332875.81768</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2115415.24346</v>
+        <v>1942433.01208</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1633924.12148</v>
+        <v>1435651.52602</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2738632.92845</v>
+        <v>2686512.4656</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3147224.98733</v>
+        <v>3087832.96363</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>4400137.77738</v>
+        <v>4716258.23189</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>5096848.95672</v>
+        <v>4901728.12076</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>6388801.76235</v>
+        <v>6052538.43789</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>15654118.31057</v>
+        <v>15057694.71284</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>8787207.58708</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>8300199.308120001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>19091254.536</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>7635.03834</v>
+        <v>6762.008980000001</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>13813.76814</v>
+        <v>12373.69947</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>17156.46716</v>
+        <v>16832.96831</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>30908.95057</v>
+        <v>30832.72694</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>23224.99683</v>
+        <v>23110.71535</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>27540.15242</v>
+        <v>27458.29309</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>38524.38133</v>
+        <v>37764.39677000001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>11484.19896</v>
+        <v>20053.89028</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>38431.00015</v>
+        <v>37604.14982</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>75902.43993000001</v>
+        <v>75884.98467000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>53397.46599000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>53649.43089</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>40419.549</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>99687.13626999999</v>
+        <v>97061.68918</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>112107.79968</v>
+        <v>111362.38654</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>64812.36751</v>
+        <v>62009.78359000001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>108724.51839</v>
+        <v>107978.50991</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>108129.69997</v>
+        <v>105544.40991</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>134925.42703</v>
+        <v>135775.82256</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>137206.80964</v>
+        <v>138490.05416</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>180527.0126</v>
+        <v>195641.96828</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>208478.22638</v>
+        <v>200804.2687</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>272888.1616000001</v>
+        <v>271923.01718</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>257648.57689</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>252775.97008</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>310422.941</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>7215.29502</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>15901.03034</v>
+        <v>15900.50278</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>12708.82412</v>
+        <v>11960.11126</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>23263.06382</v>
+        <v>22223.81715</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>31932.32847</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>82094.98177</v>
+        <v>82094.89256000001</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>2152.55676</v>
+        <v>2218.70989</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>33622.16705</v>
+        <v>33356.83753</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>6876.24267</v>
+        <v>832.71407</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>14530.31555</v>
+        <v>14470.67943</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>87378.04854999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>87131.94396999999</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>1681332.823</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1376669.0269</v>
+        <v>1323721.71857</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1011846.20901</v>
+        <v>971134.5288499999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1752253.48313</v>
+        <v>1591615.47051</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1146777.71499</v>
+        <v>956115.5876</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2202684.15891</v>
+        <v>2158250.50891</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2468489.63577</v>
+        <v>2421358.52702</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3908315.21942</v>
+        <v>4183053.52644</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>4374067.699</v>
+        <v>4154918.67455</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>5615060.213810001</v>
+        <v>5324483.58517</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>14505847.24282</v>
+        <v>13929644.01946</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>7596921.72923</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>7127902.823890001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>15705779.639</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>15120.24388</v>
+        <v>15040.43542</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>11208.52943</v>
+        <v>10675.19053</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>15621.79824</v>
+        <v>15476.95261</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>15443.42211</v>
+        <v>15412.87788</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>31575.61958</v>
+        <v>31717.92344</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>17534.27624</v>
+        <v>17678.12015</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>16786.93632</v>
+        <v>16673.51322</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>37575.37383</v>
+        <v>37621.67199</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>28968.03064</v>
+        <v>28866.21128</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>52958.2503</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>54059.00859</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>53742.95209999999</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>43510.734</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>115.35065</v>
@@ -2417,7 +2508,7 @@
         <v>15.88843</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>0.0005600000000000001</v>
+        <v>0</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>15.558</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>240439.88185</v>
+        <v>226504.832</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>212299.97977</v>
+        <v>210526.70691</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>252862.3033</v>
+        <v>244537.7258</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>308781.90402</v>
+        <v>303063.45896</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>340726.74762</v>
+        <v>335597.20245</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>411928.18405</v>
+        <v>398754.9782</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>297151.87391</v>
+        <v>338058.0314099999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>459556.61685</v>
+        <v>460119.1897</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>490988.04814</v>
+        <v>459947.50885</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>731991.90037</v>
+        <v>712813.7618</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>737802.75783</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>724996.18719</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1309773.292</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>1388391.13077</v>
+        <v>1243640.01335</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1389924.67318</v>
+        <v>1217762.22955</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>2742330.37519</v>
+        <v>2317748.78515</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1863604.40285</v>
+        <v>1782001.69273</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2926014.91394</v>
+        <v>2757052.57246</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>3653568.201369999</v>
+        <v>3506789.90323</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>4675172.19071</v>
+        <v>4534656.6762</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>5123100.266549999</v>
+        <v>5046771.04932</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>6854761.36217</v>
+        <v>6468528.51636</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>11446231.86145</v>
+        <v>10721833.22808</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>10564484.30004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>9897557.79934</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>11991549.861</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>1120446.98524</v>
+        <v>1086320.50288</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1084677.50642</v>
+        <v>1059512.63413</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1977571.66553</v>
+        <v>1928901.55701</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1588146.14999</v>
+        <v>1558452.5647</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>2536453.32777</v>
+        <v>2382235.70195</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>3272231.69091</v>
+        <v>3141919.34385</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>4159059.82081</v>
+        <v>4033910.92396</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>4625985.33458</v>
+        <v>4544470.74192</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>6342498.23722</v>
+        <v>5973833.065769999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>10252998.46297</v>
+        <v>9589406.53898</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>9532183.322490001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>8876174.238240002</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>10923410.113</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>267944.14553</v>
+        <v>157319.51047</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>305247.1667600001</v>
+        <v>158249.59542</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>764758.7096599999</v>
+        <v>388847.22814</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>275458.25286</v>
+        <v>223549.12803</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>389561.58617</v>
+        <v>374816.87051</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>381336.51046</v>
+        <v>364870.55938</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>516112.3699</v>
+        <v>500745.75224</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>497114.93197</v>
+        <v>502300.3074</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>512263.12495</v>
+        <v>494695.45059</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1193233.39848</v>
+        <v>1132426.6891</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1032300.97755</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1021383.5611</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1068139.748</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>2716369.71137</v>
+        <v>2536018.78396</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>2347444.21323</v>
+        <v>2164547.08138</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1719558.67886</v>
+        <v>1703492.38425</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>3765170.5984</v>
+        <v>3216944.99548</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1561754.26921</v>
+        <v>2001669.12451</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>3112744.981660001</v>
+        <v>3624845.43413</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2982746.25263</v>
+        <v>3764294.24851</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>4273103.13971</v>
+        <v>5472617.41083</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>6901272.57565</v>
+        <v>7042979.62849</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>4398875.93846</v>
+        <v>5129458.805729999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>15282352.40828</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>10958561.0188</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>13885722.466</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>266804.09215</v>
+        <v>236097.75984</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>574600.36339</v>
+        <v>514473.21954</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1161346.99132</v>
+        <v>1121193.84088</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>497898.466</v>
+        <v>473548.24093</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>763549.45754</v>
+        <v>730314.1996300002</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1405453.326</v>
+        <v>1225941.56051</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>777735.6477099999</v>
+        <v>847944.0959099999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>883507.0163299999</v>
+        <v>1144723.67483</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1389800.39578</v>
+        <v>1240974.00363</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1759756.23698</v>
+        <v>1536843.97958</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1497791.45448</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1451315.83667</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>2890178.219</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>22255.7979</v>
+        <v>22120.89252</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>41323.86447</v>
+        <v>40740.24249999999</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>24871.58805</v>
+        <v>24386.87307</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>26933.86348</v>
+        <v>26842.95835</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>46044.45798000001</v>
+        <v>58230.03603</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>49212.5248</v>
+        <v>48577.50870000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>29297.08099</v>
+        <v>34427.24963000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>14038.99833</v>
+        <v>14142.08885</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>48575.06208</v>
+        <v>47493.88437000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>33451.93828</v>
+        <v>33120.83571</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>121047.14254</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>120384.99711</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>112765.199</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>244548.29425</v>
+        <v>213976.86732</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>533276.49892</v>
+        <v>473732.97704</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1136475.40327</v>
+        <v>1096806.96781</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>470964.60252</v>
+        <v>446705.28258</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>717504.9995599999</v>
+        <v>672084.1636</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1356240.8012</v>
+        <v>1177364.05181</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>748438.56672</v>
+        <v>813516.8462799999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>869468.018</v>
+        <v>1130581.58598</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1341225.3337</v>
+        <v>1193480.11926</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1726304.2987</v>
+        <v>1503723.14387</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1376744.31194</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1330930.83956</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>2777413.02</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>581755.1411799999</v>
+        <v>555075.7671899999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>604656.4434700001</v>
+        <v>573372.38263</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1162317.89336</v>
+        <v>1096258.708</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>1221689.36072</v>
+        <v>1136632.30474</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>954795.1100699999</v>
+        <v>926128.29304</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1162207.23263</v>
+        <v>1145916.07208</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1106603.419</v>
+        <v>1119196.36349</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1609231.70508</v>
+        <v>1663284.4082</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>1356298.77423</v>
+        <v>1243948.47485</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2841480.12699</v>
+        <v>2784579.17181</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1725742.08159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1697143.91639</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2685903.924</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>149784.54324</v>
+        <v>136885.50677</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>148337.03872</v>
+        <v>140279.48019</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>183970.99918</v>
+        <v>175703.31541</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>142258.04768</v>
+        <v>137042.45666</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>240840.65679</v>
+        <v>237448.24418</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>237697.80866</v>
+        <v>220128.56572</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>254339.08003</v>
+        <v>250281.21586</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>263381.63643</v>
+        <v>294776.92622</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>308077.67045</v>
+        <v>286388.34853</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>323638.66662</v>
+        <v>290937.88662</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>418954.13425</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>406595.44105</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>488054.97</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>168715.1629</v>
+        <v>167999.2695</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>170618.42391</v>
+        <v>170106.46171</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>138296.19399</v>
+        <v>136979.1441</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>173566.15778</v>
+        <v>173505.67122</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>194345.83971</v>
+        <v>194777.10171</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>194321.92574</v>
+        <v>192718.66231</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>186826.09316</v>
+        <v>191369.9254</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>240091.09567</v>
+        <v>252731.81621</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>271047.13354</v>
+        <v>242560.67934</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>627482.6981099999</v>
+        <v>624749.54526</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>377022.02173</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>368633.78086</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>734693.203</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>263255.43504</v>
+        <v>250190.99092</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>285700.98084</v>
+        <v>262986.44073</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>840050.70019</v>
+        <v>783576.24849</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>905865.1552599999</v>
+        <v>826084.17686</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>519608.61357</v>
+        <v>493902.94715</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>730187.49823</v>
+        <v>733068.8440500001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>665438.24581</v>
+        <v>677545.2222300001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1105758.97298</v>
+        <v>1115775.66577</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>777173.9702400001</v>
+        <v>714999.44698</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1890358.76226</v>
+        <v>1868891.73993</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>929765.9256100002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>921914.6944800001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1463155.751</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>2401418.66234</v>
+        <v>2217040.77661</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>2317388.13315</v>
+        <v>2105647.91829</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1718587.77682</v>
+        <v>1728427.51713</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>3041379.70368</v>
+        <v>2553860.931669999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1370508.61668</v>
+        <v>1805855.0311</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>3355991.07503</v>
+        <v>3704870.92256</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2653878.481339999</v>
+        <v>3493041.98093</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>3547378.45096</v>
+        <v>4954056.67746</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>6934774.197199999</v>
+        <v>7040005.15727</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>3317152.04845</v>
+        <v>3881723.6135</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>15054401.78117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>10712732.93908</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>14089996.761</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>407954.5836499999</v>
+        <v>405024.34115</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>442152.66742</v>
+        <v>438209.14727</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>434181.3228799999</v>
+        <v>426919.49982</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>614212.9303100001</v>
+        <v>612147.15076</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>505949.96799</v>
+        <v>528009.50368</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>585124.90899</v>
+        <v>638364.28361</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>678375.4880899999</v>
+        <v>738503.38645</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>778678.6320900001</v>
+        <v>881694.3466899999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1181254.02192</v>
+        <v>1167153.25242</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1262235.86205</v>
+        <v>1231059.36854</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1633053.23979</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1620160.68799</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>2115457.059</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>1993464.07869</v>
+        <v>1812016.43546</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1875235.46573</v>
+        <v>1667438.77102</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>1284406.45394</v>
+        <v>1301508.01731</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2427166.773370001</v>
+        <v>1941713.78091</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>864558.6486900001</v>
+        <v>1277845.52742</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>2770866.16604</v>
+        <v>3066506.638949999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1975502.99325</v>
+        <v>2754538.59448</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>2768699.81887</v>
+        <v>4072362.330769999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>5753520.175280001</v>
+        <v>5872851.90485</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>2054916.1864</v>
+        <v>2650664.24496</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>13421348.54138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>9092572.251089999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>11974539.702</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>423</v>
+        <v>378</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>512</v>
+        <v>448</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>564</v>
+        <v>505</v>
       </c>
       <c r="G59" s="35" t="n">
+        <v>403</v>
+      </c>
+      <c r="H59" s="35" t="n">
         <v>453</v>
       </c>
-      <c r="H59" s="35" t="n">
-        <v>514</v>
-      </c>
       <c r="I59" s="35" t="n">
-        <v>577</v>
+        <v>509</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>638</v>
+        <v>575</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>741</v>
+        <v>635</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>387</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>